--- a/biology/Neurosciences/Communication_interspécifique/Communication_interspécifique.xlsx
+++ b/biology/Neurosciences/Communication_interspécifique/Communication_interspécifique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Communication_intersp%C3%A9cifique</t>
+          <t>Communication_interspécifique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une communication interspécifique, ou communication inter-espèces, est une communication entre des êtres vivants appartenant à deux espèces différentes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Communication_intersp%C3%A9cifique</t>
+          <t>Communication_interspécifique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un mode de communication analogique[1]. Les êtres humains comprennent en général assez facilement les signaux envoyés par d'autres mammifères terrestres[1]. La sémiotique permet d'appréhender l'étude de la communication interspécifique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un mode de communication analogique. Les êtres humains comprennent en général assez facilement les signaux envoyés par d'autres mammifères terrestres. La sémiotique permet d'appréhender l'étude de la communication interspécifique.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Communication_intersp%C3%A9cifique</t>
+          <t>Communication_interspécifique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un exemple de communication interspécifique entre le chien et l'être humain est l'envoi d'un signal de menace par le chien lorsqu'il grogne et montre ses dents, ce signal étant compris et identifié comme une menace par l'être humain[1]. Un autre exemple est la mobilisation de la queue du chat. Le chat la maintient haut s'il veut démontrer une intention amicale envers un être humain, alors qu'il fouette l'air de plus en plus vite pour lui communiquer sa contrariété[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un exemple de communication interspécifique entre le chien et l'être humain est l'envoi d'un signal de menace par le chien lorsqu'il grogne et montre ses dents, ce signal étant compris et identifié comme une menace par l'être humain. Un autre exemple est la mobilisation de la queue du chat. Le chat la maintient haut s'il veut démontrer une intention amicale envers un être humain, alors qu'il fouette l'air de plus en plus vite pour lui communiquer sa contrariété.
 Il existe d'autres exemples de communications interspécifiques, comme celles entre l'être humain et le cheval.
 </t>
         </is>
